--- a/biology/Médecine/Bioéquivalence/Bioéquivalence.xlsx
+++ b/biology/Médecine/Bioéquivalence/Bioéquivalence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bio%C3%A9quivalence</t>
+          <t>Bioéquivalence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bioéquivalence ou bio-équivalence est un terme de pharmacologie.
 Deux principes actifs sont dits bioéquivalents lorsque, administrés à la même concentration, ils engendrent normalement les mêmes effets.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bio%C3%A9quivalence</t>
+          <t>Bioéquivalence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Paramètres de la bioéquivalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> La biodisponibilité  : correspond à la fraction de substance administrée par voie autre qu'intraveineuse qui sera retrouvée effectivement dans la circulation. Aptitude d'un principe actif à atteindre son ou ses sites d'action sous forme inchangée ou sous forme de métabolites actifs selon une cinétique déterminée.
  Cmax  : est la concentration maximale du produit qu'on retrouvera dans le sang après administration. Par exemple un produit administré per os aura une concentration plasmatique qui augmentera jusqu'à atteindre 1mg/L puis diminuera. Dans ce cas, Cmax est égal a 1mg/L.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bio%C3%A9quivalence</t>
+          <t>Bioéquivalence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Utilisation des études de bioéquivalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Génériques : On définit un générique comme un médicament bio équivalent au principe actif de référence. Dès lors, pour qu'un générique soit mis sur le marché, le laboratoire qui souhaite le commercialiser doit prouver par des essais protocolisés que son générique est bio équivalent au principe de référence (cf. aux États-Unis l'amendement de 1984 au Federal Food, Drug, and Cosmetic Act).
 Innovation industrielle ou médicale, c'est-à-dire lorsque l'on veut changer de mode d'administration d'un médicament (voie orale, intraveineuse, intramusculaire, etc.) ou de posologie (administration une ou deux fois par jour...), il faut démontrer que cette innovation est bio équivalente par rapport au mode d'administration ou de la posologie de référence
